--- a/dados_ocorrencias.xlsx
+++ b/dados_ocorrencias.xlsx
@@ -970,7 +970,11 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sumiu</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
@@ -979,7 +983,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -992,7 +996,7 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Em Atendimento</t>
+          <t>Finalizada</t>
         </is>
       </c>
     </row>
